--- a/Sprint 7/Product Backlog-Burndown.xlsx
+++ b/Sprint 7/Product Backlog-Burndown.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Implemetação da funcionalidade nas telas internas do sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar prontuário </t>
-  </si>
-  <si>
     <t>Implementar novas funcionálidades no sistema</t>
   </si>
   <si>
@@ -358,19 +355,121 @@
     <t>Integração de funcionalidade ao sistema</t>
   </si>
   <si>
-    <t>Integração do banco de dados</t>
-  </si>
-  <si>
     <t>Inserção de JComboBox com dados de cidades e estados nas telas de cadastro</t>
   </si>
   <si>
-    <t>Inserir agendamentos na tela de menu</t>
+    <t>inserção de metodos de agendamento no bando de dados</t>
+  </si>
+  <si>
+    <t>inserção de metodos de busca de agedamentos no banco de dados</t>
+  </si>
+  <si>
+    <t>inserção de metodos de controle de horários no banco de dados</t>
+  </si>
+  <si>
+    <t>Atualização MVC</t>
+  </si>
+  <si>
+    <t>Módulo Prontuário</t>
   </si>
   <si>
     <t>Tela de login</t>
   </si>
   <si>
-    <t>Módulo prontuário</t>
+    <t>Integração com o BD</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Atualização da documentação</t>
+  </si>
+  <si>
+    <t>Mudança de métodos das telas de cadastro para classe funcionário</t>
+  </si>
+  <si>
+    <t>Mudança de métodos das telas de busca para classe funcionário</t>
+  </si>
+  <si>
+    <t>Implementação gráfica da tela prontuário</t>
+  </si>
+  <si>
+    <t>Métodos de busca de prontuário</t>
+  </si>
+  <si>
+    <t>Métodos de alteração de prontuário</t>
+  </si>
+  <si>
+    <t>Métodos de salvar prontuário</t>
+  </si>
+  <si>
+    <t>Integração com agendamento</t>
+  </si>
+  <si>
+    <t>Implementação gráfica</t>
+  </si>
+  <si>
+    <t>Implementação de métodos</t>
+  </si>
+  <si>
+    <t>Diagrama Entidade Relacionamento</t>
+  </si>
+  <si>
+    <t>Criação do banco, tabelas e atributos do banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudo da biblioteca </t>
+  </si>
+  <si>
+    <t>Conexão do banco com o eclipse</t>
+  </si>
+  <si>
+    <t>Métodos de inserção de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de inserção de funcionarios</t>
+  </si>
+  <si>
+    <t>Métodos de remoção de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de remoção de funcionarios</t>
+  </si>
+  <si>
+    <t>Métodos de busca de pacientes</t>
+  </si>
+  <si>
+    <t>Métodos de busca de funcionários</t>
+  </si>
+  <si>
+    <t>Implementar parte gráfica da tela consulta de agendamentos</t>
+  </si>
+  <si>
+    <t>Implementar métodos de consultas de agendamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exibir consultas do data atual na tela </t>
+  </si>
+  <si>
+    <t>Mudança de métodos para suas classes, de modo a respeitar o padrão de projeto utilizado</t>
+  </si>
+  <si>
+    <t>Implementação de métodos de busca e alteração de prontuários.</t>
+  </si>
+  <si>
+    <t>Implementação gráfica e funcional da tela de login do sistema.</t>
+  </si>
+  <si>
+    <t>Estudo, diagramação e implementação de métodos de inserção, remoção e busca de pacientes e funcionários</t>
+  </si>
+  <si>
+    <t>Implementação gráfica e funcional da tela de consulta de agendamentos</t>
+  </si>
+  <si>
+    <t>Atualização de modificações feitas no projeto durante a Sprint</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -685,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +909,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,30 +972,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,16 +1367,16 @@
                   <c:v>318.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.46999999999997</c:v>
+                  <c:v>288.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>318.46999999999997</c:v>
+                  <c:v>288.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>318.46999999999997</c:v>
+                  <c:v>288.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>318.46999999999997</c:v>
+                  <c:v>288.46999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,11 +1456,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216604104"/>
-        <c:axId val="215405128"/>
+        <c:axId val="168075392"/>
+        <c:axId val="168093616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216604104"/>
+        <c:axId val="168075392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1495,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215405128"/>
+        <c:crossAx val="168093616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,7 +1503,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215405128"/>
+        <c:axId val="168093616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1433,7 +1549,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216604104"/>
+        <c:crossAx val="168075392"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1814,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1832,14 +1948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2043,10 +2159,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2076,8 +2192,8 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="23" t="s">
         <v>43</v>
       </c>
@@ -2105,8 +2221,8 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="23" t="s">
         <v>44</v>
       </c>
@@ -2134,8 +2250,8 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23" t="s">
         <v>45</v>
       </c>
@@ -2163,8 +2279,8 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
@@ -2192,8 +2308,8 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="23" t="s">
         <v>47</v>
       </c>
@@ -2221,8 +2337,8 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="23" t="s">
         <v>48</v>
       </c>
@@ -2250,10 +2366,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2283,8 +2399,8 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="24" t="s">
         <v>52</v>
       </c>
@@ -2312,8 +2428,8 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
@@ -2341,8 +2457,8 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="25" t="s">
         <v>53</v>
       </c>
@@ -2370,10 +2486,10 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2403,8 +2519,8 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="23" t="s">
         <v>73</v>
       </c>
@@ -2432,10 +2548,10 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -2465,8 +2581,8 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="23" t="s">
         <v>73</v>
       </c>
@@ -2494,10 +2610,10 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -2527,8 +2643,8 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="23" t="s">
         <v>73</v>
       </c>
@@ -2556,10 +2672,10 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2589,8 +2705,8 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="23" t="s">
         <v>73</v>
       </c>
@@ -2618,10 +2734,10 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="59" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2651,8 +2767,8 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="22" t="s">
         <v>75</v>
       </c>
@@ -2680,10 +2796,10 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -2713,8 +2829,8 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="38" t="s">
         <v>81</v>
       </c>
@@ -2742,10 +2858,10 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -2775,8 +2891,8 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="40" t="s">
         <v>83</v>
       </c>
@@ -2804,8 +2920,8 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="41" t="s">
         <v>84</v>
       </c>
@@ -2833,8 +2949,8 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="42" t="s">
         <v>85</v>
       </c>
@@ -2862,8 +2978,8 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="42" t="s">
         <v>86</v>
       </c>
@@ -2891,10 +3007,10 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="48" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -2924,8 +3040,8 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="39" t="s">
         <v>88</v>
       </c>
@@ -2953,10 +3069,10 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="33" t="s">
         <v>96</v>
       </c>
@@ -2984,8 +3100,8 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="38" t="s">
         <v>97</v>
       </c>
@@ -3013,8 +3129,8 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="39" t="s">
         <v>98</v>
       </c>
@@ -3042,11 +3158,11 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>107</v>
+      <c r="B41" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>99</v>
@@ -3075,8 +3191,8 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="39" t="s">
         <v>100</v>
       </c>
@@ -3104,8 +3220,8 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="41" t="s">
         <v>101</v>
       </c>
@@ -3133,8 +3249,8 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="42" t="s">
         <v>101</v>
       </c>
@@ -3162,10 +3278,10 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" s="35">
         <v>4.5</v>
@@ -3191,11 +3307,11 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>108</v>
+      <c r="B46" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>102</v>
@@ -3224,8 +3340,8 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="42" t="s">
         <v>103</v>
       </c>
@@ -3253,11 +3369,11 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>109</v>
+      <c r="B48" s="48" t="s">
+        <v>108</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>104</v>
@@ -3286,8 +3402,8 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="39" t="s">
         <v>105</v>
       </c>
@@ -3314,15 +3430,25 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="6"/>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="29">
+        <v>1</v>
+      </c>
+      <c r="E50" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="6">
+        <v>7</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3337,15 +3463,21 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="6"/>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="29">
+        <v>1</v>
+      </c>
+      <c r="E51" s="29">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>7</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3360,15 +3492,21 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="6"/>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="63"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="29">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>7</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3383,15 +3521,21 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="6"/>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="6">
+        <v>7</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3406,15 +3550,17 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="39"/>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="65"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6">
+        <v>7</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3429,15 +3575,17 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="39"/>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="41" t="s">
+        <v>123</v>
+      </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6">
+        <v>7</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3452,13 +3600,17 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="39"/>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="65"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="42" t="s">
+        <v>124</v>
+      </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6">
+        <v>7</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3473,13 +3625,17 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="66"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="6">
+        <v>7</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3494,15 +3650,25 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="35">
+        <v>1</v>
+      </c>
+      <c r="E58" s="35">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>7</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3517,13 +3683,21 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="66"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="35">
+        <v>3</v>
+      </c>
+      <c r="E59" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>7</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3538,13 +3712,25 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="35">
+        <v>2</v>
+      </c>
+      <c r="E60" s="35">
+        <v>2.25</v>
+      </c>
+      <c r="F60" s="6">
+        <v>7</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3559,15 +3745,21 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="65"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="35">
+        <v>2</v>
+      </c>
+      <c r="F61" s="6">
+        <v>7</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3582,13 +3774,21 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="65"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="35">
+        <v>2</v>
+      </c>
+      <c r="E62" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>7</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3603,13 +3803,21 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="65"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="35">
+        <v>1</v>
+      </c>
+      <c r="E63" s="35">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>7</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3624,21 +3832,21 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11">
-        <f>SUM(D4:D63)</f>
-        <v>181.52999999999997</v>
-      </c>
-      <c r="E64" s="11">
-        <f>SUM(E4:E57)</f>
-        <v>181.52999999999997</v>
-      </c>
-      <c r="F64" s="6"/>
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="65"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>7</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3653,11 +3861,839 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="26"/>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="65"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E65" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F65" s="6">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="65"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="35">
+        <v>2</v>
+      </c>
+      <c r="E66" s="35">
+        <v>2.25</v>
+      </c>
+      <c r="F66" s="6">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="65"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="35">
+        <v>2</v>
+      </c>
+      <c r="E67" s="35">
+        <v>2.25</v>
+      </c>
+      <c r="F67" s="6">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="65"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="35">
+        <v>2</v>
+      </c>
+      <c r="E68" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="65"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="35">
+        <v>2</v>
+      </c>
+      <c r="E69" s="35">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="6">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="65"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="6">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="66"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="6">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="35">
+        <v>2</v>
+      </c>
+      <c r="E73" s="35">
+        <v>2.25</v>
+      </c>
+      <c r="F73" s="6">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="65"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="35">
+        <v>2</v>
+      </c>
+      <c r="E74" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>7</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="66"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="35">
+        <v>2</v>
+      </c>
+      <c r="E75" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F75" s="6">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="47"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="47"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="47"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="46"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="47"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="47"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="45"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="45"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="45"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="45"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="79"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="79"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="79"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="45"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="11">
+        <f>SUM(D4:D97)</f>
+        <v>211.52999999999997</v>
+      </c>
+      <c r="E98" s="11">
+        <f>SUM(E4:E97)</f>
+        <v>211.52999999999997</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E99" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="41">
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B47"/>
@@ -3722,20 +4758,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="1"/>
@@ -3750,22 +4786,22 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="71" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="72" t="s">
@@ -3774,16 +4810,16 @@
       <c r="H2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1"/>
@@ -3798,18 +4834,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3943,19 +4979,19 @@
       </c>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>318.46999999999997</v>
+        <v>288.46999999999997</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>318.46999999999997</v>
+        <v>288.46999999999997</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="1"/>
-        <v>318.46999999999997</v>
+        <v>288.46999999999997</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="1"/>
-        <v>318.46999999999997</v>
+        <v>288.46999999999997</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -3997,22 +5033,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="20" t="s">
         <v>10</v>
       </c>
@@ -4031,10 +5067,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="67">
+      <c r="A9" s="74">
         <v>50</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="18">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>39</v>
@@ -4061,7 +5097,7 @@
       </c>
       <c r="I9" s="18">
         <f>SUMIF('Product Backlog'!F:F,7,'Product Backlog'!E:E)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="18">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
@@ -4077,11 +5113,11 @@
       </c>
       <c r="M9" s="18">
         <f>SUM(C9:L9)</f>
-        <v>181.53000000000003</v>
+        <v>211.53000000000003</v>
       </c>
       <c r="N9" s="18">
         <f>M9/10</f>
-        <v>18.153000000000002</v>
+        <v>21.153000000000002</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -4096,8 +5132,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A9:B9"/>
@@ -4113,6 +5147,8 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/Sprint 7/Product Backlog-Burndown.xlsx
+++ b/Sprint 7/Product Backlog-Burndown.xlsx
@@ -915,87 +915,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1003,10 +922,91 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1246,7 @@
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>categories</c15:sqref>
@@ -1367,16 +1367,16 @@
                   <c:v>318.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>288.46999999999997</c:v>
+                  <c:v>271.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.46999999999997</c:v>
+                  <c:v>271.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>288.46999999999997</c:v>
+                  <c:v>271.27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>288.46999999999997</c:v>
+                  <c:v>271.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,7 +1390,7 @@
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>categories</c15:sqref>
@@ -1456,11 +1456,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168075392"/>
-        <c:axId val="168093616"/>
+        <c:axId val="145765296"/>
+        <c:axId val="145764904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168075392"/>
+        <c:axId val="145765296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1495,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168093616"/>
+        <c:crossAx val="145764904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1503,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168093616"/>
+        <c:axId val="145764904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1549,7 +1549,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168075392"/>
+        <c:crossAx val="145765296"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,14 +1948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2159,10 +2159,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="69" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2192,8 +2192,8 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="23" t="s">
         <v>43</v>
       </c>
@@ -2221,8 +2221,8 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="23" t="s">
         <v>44</v>
       </c>
@@ -2250,8 +2250,8 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="23" t="s">
         <v>45</v>
       </c>
@@ -2279,8 +2279,8 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="23" t="s">
         <v>46</v>
       </c>
@@ -2308,8 +2308,8 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="23" t="s">
         <v>47</v>
       </c>
@@ -2337,8 +2337,8 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="23" t="s">
         <v>48</v>
       </c>
@@ -2366,10 +2366,10 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2399,8 +2399,8 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="24" t="s">
         <v>52</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
@@ -2457,8 +2457,8 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="25" t="s">
         <v>53</v>
       </c>
@@ -2486,10 +2486,10 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2519,8 +2519,8 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="23" t="s">
         <v>73</v>
       </c>
@@ -2548,10 +2548,10 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -2581,8 +2581,8 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="23" t="s">
         <v>73</v>
       </c>
@@ -2610,10 +2610,10 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -2643,8 +2643,8 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="23" t="s">
         <v>73</v>
       </c>
@@ -2672,10 +2672,10 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2705,8 +2705,8 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="23" t="s">
         <v>73</v>
       </c>
@@ -2734,10 +2734,10 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="55" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2767,8 +2767,8 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="22" t="s">
         <v>75</v>
       </c>
@@ -2796,10 +2796,10 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="58" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -2829,8 +2829,8 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="38" t="s">
         <v>81</v>
       </c>
@@ -2858,10 +2858,10 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -2891,8 +2891,8 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="40" t="s">
         <v>83</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="41" t="s">
         <v>84</v>
       </c>
@@ -2949,8 +2949,8 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="42" t="s">
         <v>85</v>
       </c>
@@ -2978,8 +2978,8 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="42" t="s">
         <v>86</v>
       </c>
@@ -3007,10 +3007,10 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="58" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -3040,8 +3040,8 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="39" t="s">
         <v>88</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="A38" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="33" t="s">
         <v>96</v>
       </c>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
-      <c r="B39" s="50"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="38" t="s">
         <v>97</v>
       </c>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="39" t="s">
         <v>98</v>
       </c>
@@ -3158,10 +3158,10 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="58" t="s">
         <v>106</v>
       </c>
       <c r="C41" s="39" t="s">
@@ -3191,8 +3191,8 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="39" t="s">
         <v>100</v>
       </c>
@@ -3220,8 +3220,8 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="41" t="s">
         <v>101</v>
       </c>
@@ -3249,8 +3249,8 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="42" t="s">
         <v>101</v>
       </c>
@@ -3278,8 +3278,8 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="41" t="s">
         <v>109</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="58" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="42" t="s">
@@ -3340,8 +3340,8 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="66"/>
-      <c r="B47" s="49"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="42" t="s">
         <v>103</v>
       </c>
@@ -3369,10 +3369,10 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="58" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -3402,8 +3402,8 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="66"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="39" t="s">
         <v>105</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="A50" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="55" t="s">
         <v>141</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3465,7 +3465,7 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
-      <c r="B51" s="78"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="38" t="s">
         <v>120</v>
       </c>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63"/>
-      <c r="B52" s="60"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="39" t="s">
         <v>147</v>
       </c>
@@ -3522,17 +3522,21 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="58" t="s">
         <v>142</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
+      <c r="D53" s="44">
+        <v>1</v>
+      </c>
+      <c r="E53" s="44">
+        <v>1.25</v>
+      </c>
       <c r="F53" s="6">
         <v>7</v>
       </c>
@@ -3551,13 +3555,17 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
-      <c r="B54" s="50"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="D54" s="35">
+        <v>2</v>
+      </c>
+      <c r="E54" s="35">
+        <v>2</v>
+      </c>
       <c r="F54" s="6">
         <v>7</v>
       </c>
@@ -3576,13 +3584,17 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="50"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="D55" s="35">
+        <v>2</v>
+      </c>
+      <c r="E55" s="35">
+        <v>2</v>
+      </c>
       <c r="F55" s="6">
         <v>7</v>
       </c>
@@ -3601,13 +3613,17 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
-      <c r="B56" s="50"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="D56" s="35">
+        <v>2</v>
+      </c>
+      <c r="E56" s="35">
+        <v>1.7</v>
+      </c>
       <c r="F56" s="6">
         <v>7</v>
       </c>
@@ -3626,13 +3642,17 @@
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="66"/>
-      <c r="B57" s="49"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="D57" s="35">
+        <v>3</v>
+      </c>
+      <c r="E57" s="35">
+        <v>2.5</v>
+      </c>
       <c r="F57" s="6">
         <v>7</v>
       </c>
@@ -3651,10 +3671,10 @@
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="58" t="s">
         <v>143</v>
       </c>
       <c r="C58" s="42" t="s">
@@ -3684,8 +3704,8 @@
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="42" t="s">
         <v>127</v>
       </c>
@@ -3713,13 +3733,13 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="49" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="35">
@@ -3746,8 +3766,8 @@
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="42" t="s">
         <v>129</v>
       </c>
@@ -3775,8 +3795,8 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
-      <c r="B62" s="78"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="39" t="s">
         <v>130</v>
       </c>
@@ -3804,8 +3824,8 @@
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
-      <c r="B63" s="78"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="39" t="s">
         <v>131</v>
       </c>
@@ -3833,8 +3853,8 @@
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="39" t="s">
         <v>132</v>
       </c>
@@ -3862,8 +3882,8 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="39" t="s">
         <v>133</v>
       </c>
@@ -3891,8 +3911,8 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="39" t="s">
         <v>134</v>
       </c>
@@ -3920,8 +3940,8 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
-      <c r="B67" s="78"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="39" t="s">
         <v>135</v>
       </c>
@@ -3949,8 +3969,8 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
-      <c r="B68" s="78"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="39" t="s">
         <v>136</v>
       </c>
@@ -3978,8 +3998,8 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="39" t="s">
         <v>137</v>
       </c>
@@ -4007,17 +4027,21 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="77" t="s">
+      <c r="C70" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="35">
+        <v>2</v>
+      </c>
+      <c r="E70" s="35">
+        <v>2.25</v>
+      </c>
       <c r="F70" s="6">
         <v>7</v>
       </c>
@@ -4036,13 +4060,17 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65"/>
-      <c r="B71" s="50"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="D71" s="35">
+        <v>3</v>
+      </c>
+      <c r="E71" s="35">
+        <v>3</v>
+      </c>
       <c r="F71" s="6">
         <v>7</v>
       </c>
@@ -4061,13 +4089,17 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="66"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="D72" s="35">
+        <v>3</v>
+      </c>
+      <c r="E72" s="35">
+        <v>2.5</v>
+      </c>
       <c r="F72" s="6">
         <v>7</v>
       </c>
@@ -4086,10 +4118,10 @@
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="58" t="s">
         <v>146</v>
       </c>
       <c r="C73" s="33" t="s">
@@ -4119,8 +4151,8 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
-      <c r="B74" s="50"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="38" t="s">
         <v>97</v>
       </c>
@@ -4148,8 +4180,8 @@
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
-      <c r="B75" s="49"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="39" t="s">
         <v>98</v>
       </c>
@@ -4240,7 +4272,7 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="48" t="s">
         <v>110</v>
       </c>
       <c r="B79" s="46"/>
@@ -4263,7 +4295,7 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="48" t="s">
         <v>111</v>
       </c>
       <c r="B80" s="46"/>
@@ -4286,7 +4318,7 @@
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="75" t="s">
+      <c r="A81" s="48" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="46"/>
@@ -4435,7 +4467,7 @@
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="79"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="37"/>
       <c r="C88" s="39"/>
       <c r="D88" s="35"/>
@@ -4456,7 +4488,7 @@
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="79"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="37"/>
       <c r="C89" s="39"/>
       <c r="D89" s="35"/>
@@ -4477,7 +4509,7 @@
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="79"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="37"/>
       <c r="C90" s="39"/>
       <c r="D90" s="35"/>
@@ -4656,11 +4688,11 @@
       <c r="C98" s="10"/>
       <c r="D98" s="11">
         <f>SUM(D4:D97)</f>
-        <v>211.52999999999997</v>
+        <v>229.52999999999997</v>
       </c>
       <c r="E98" s="11">
         <f>SUM(E4:E97)</f>
-        <v>211.52999999999997</v>
+        <v>228.72999999999996</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="1"/>
@@ -4682,6 +4714,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B53:B57"/>
@@ -4694,35 +4755,6 @@
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4758,20 +4790,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="1"/>
@@ -4786,40 +4818,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="78" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1"/>
@@ -4834,18 +4866,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4979,19 +5011,19 @@
       </c>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>288.46999999999997</v>
+        <v>271.27</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>288.46999999999997</v>
+        <v>271.27</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="1"/>
-        <v>288.46999999999997</v>
+        <v>271.27</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="1"/>
-        <v>288.46999999999997</v>
+        <v>271.27</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -5033,22 +5065,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="20" t="s">
         <v>10</v>
       </c>
@@ -5067,10 +5099,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="74">
+      <c r="A9" s="73">
         <v>50</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="18">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>39</v>
@@ -5097,7 +5129,7 @@
       </c>
       <c r="I9" s="18">
         <f>SUMIF('Product Backlog'!F:F,7,'Product Backlog'!E:E)</f>
-        <v>30</v>
+        <v>47.2</v>
       </c>
       <c r="J9" s="18">
         <f>SUMIF('Product Backlog'!F:F,8,'Product Backlog'!E:E)</f>
@@ -5113,11 +5145,11 @@
       </c>
       <c r="M9" s="18">
         <f>SUM(C9:L9)</f>
-        <v>211.53000000000003</v>
+        <v>228.73000000000002</v>
       </c>
       <c r="N9" s="18">
         <f>M9/10</f>
-        <v>21.153000000000002</v>
+        <v>22.873000000000001</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -5132,6 +5164,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A9:B9"/>
@@ -5148,7 +5181,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
